--- a/Code/Results/Cases/Case_6_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30129240171308</v>
+        <v>24.30129240171317</v>
       </c>
       <c r="C2">
-        <v>13.21252755742122</v>
+        <v>13.21252755742129</v>
       </c>
       <c r="D2">
-        <v>10.31146608009538</v>
+        <v>10.31146608009546</v>
       </c>
       <c r="E2">
-        <v>6.610737239743957</v>
+        <v>6.610737239744211</v>
       </c>
       <c r="F2">
-        <v>63.87838565104293</v>
+        <v>63.87838565104356</v>
       </c>
       <c r="G2">
-        <v>2.082506316860521</v>
+        <v>2.082506316860518</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.359654974026164</v>
+        <v>7.359654974026135</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50444159584766</v>
+        <v>22.50444159584772</v>
       </c>
       <c r="C3">
-        <v>12.26791569349357</v>
+        <v>12.26791569349375</v>
       </c>
       <c r="D3">
-        <v>9.895798631816456</v>
+        <v>9.895798631816321</v>
       </c>
       <c r="E3">
-        <v>6.553319824536629</v>
+        <v>6.55331982453675</v>
       </c>
       <c r="F3">
-        <v>60.17341659922351</v>
+        <v>60.17341659922359</v>
       </c>
       <c r="G3">
-        <v>2.098607879284038</v>
+        <v>2.098607879283897</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.118224104180894</v>
+        <v>7.118224104180931</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45149828295629</v>
+        <v>21.45149828295628</v>
       </c>
       <c r="C4">
-        <v>11.6657956542544</v>
+        <v>11.66579565425427</v>
       </c>
       <c r="D4">
-        <v>9.639988260244776</v>
+        <v>9.639988260244706</v>
       </c>
       <c r="E4">
-        <v>6.52019886417409</v>
+        <v>6.520198864174044</v>
       </c>
       <c r="F4">
-        <v>57.85310656200111</v>
+        <v>57.85310656200118</v>
       </c>
       <c r="G4">
-        <v>2.108609924581404</v>
+        <v>2.108609924581144</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.974100053941239</v>
+        <v>6.974100053941232</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03302064957511</v>
+        <v>21.03302064957508</v>
       </c>
       <c r="C5">
-        <v>11.41460388434311</v>
+        <v>11.41460388434322</v>
       </c>
       <c r="D5">
-        <v>9.53556085806388</v>
+        <v>9.535560858063944</v>
       </c>
       <c r="E5">
-        <v>6.507194285121392</v>
+        <v>6.507194285121567</v>
       </c>
       <c r="F5">
-        <v>56.89617906872494</v>
+        <v>56.89617906872477</v>
       </c>
       <c r="G5">
-        <v>2.112722040903951</v>
+        <v>2.112722040903806</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.916402781130762</v>
+        <v>6.916402781130818</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96318929997583</v>
+        <v>20.96318929997588</v>
       </c>
       <c r="C6">
-        <v>11.37253503831883</v>
+        <v>11.37253503831885</v>
       </c>
       <c r="D6">
-        <v>9.51820913675971</v>
+        <v>9.518209136759847</v>
       </c>
       <c r="E6">
-        <v>6.505063427511069</v>
+        <v>6.505063427511056</v>
       </c>
       <c r="F6">
-        <v>56.73660080093183</v>
+        <v>56.73660080093155</v>
       </c>
       <c r="G6">
-        <v>2.11340723423864</v>
+        <v>2.113407234238759</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.906884832234115</v>
+        <v>6.906884832234141</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44587768502376</v>
+        <v>21.44587768502378</v>
       </c>
       <c r="C7">
-        <v>11.66243189000258</v>
+        <v>11.66243189000263</v>
       </c>
       <c r="D7">
-        <v>9.638580685147199</v>
+        <v>9.638580685147232</v>
       </c>
       <c r="E7">
-        <v>6.520021540717488</v>
+        <v>6.520021540717555</v>
       </c>
       <c r="F7">
-        <v>57.84024694285574</v>
+        <v>57.840246942856</v>
       </c>
       <c r="G7">
-        <v>2.108665226608673</v>
+        <v>2.108665226608937</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.973317733668305</v>
+        <v>6.973317733668311</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.68985133540264</v>
+        <v>23.68985133540266</v>
       </c>
       <c r="C8">
-        <v>12.8912499622337</v>
+        <v>12.89124996223361</v>
       </c>
       <c r="D8">
-        <v>10.16823816940957</v>
+        <v>10.16823816940955</v>
       </c>
       <c r="E8">
-        <v>6.590468870055938</v>
+        <v>6.590468870056047</v>
       </c>
       <c r="F8">
-        <v>62.61028892820563</v>
+        <v>62.61028892820534</v>
       </c>
       <c r="G8">
-        <v>2.08803870110763</v>
+        <v>2.088038701107374</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.275551801594108</v>
+        <v>7.275551801594133</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.96797522448685</v>
+        <v>27.96797522448687</v>
       </c>
       <c r="C9">
-        <v>15.13921517447255</v>
+        <v>15.1392151744724</v>
       </c>
       <c r="D9">
-        <v>11.20518903520018</v>
+        <v>11.2051890352001</v>
       </c>
       <c r="E9">
-        <v>6.747826885344506</v>
+        <v>6.747826885344443</v>
       </c>
       <c r="F9">
-        <v>71.61665404632065</v>
+        <v>71.61665404632038</v>
       </c>
       <c r="G9">
-        <v>2.048133856130285</v>
+        <v>2.048133856130407</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.901642675170982</v>
+        <v>7.901642675171012</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.95845847001853</v>
+        <v>30.95845847001843</v>
       </c>
       <c r="C10">
-        <v>16.71542269327223</v>
+        <v>16.71542269327236</v>
       </c>
       <c r="D10">
-        <v>11.97271881131873</v>
+        <v>11.97271881131879</v>
       </c>
       <c r="E10">
-        <v>6.87892543415091</v>
+        <v>6.878925434150937</v>
       </c>
       <c r="F10">
-        <v>78.06325842039254</v>
+        <v>78.06325842039263</v>
       </c>
       <c r="G10">
-        <v>2.018524055742601</v>
+        <v>2.018524055742716</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.29536388528349</v>
+        <v>32.29536388528354</v>
       </c>
       <c r="C11">
-        <v>17.42277144821981</v>
+        <v>17.42277144821988</v>
       </c>
       <c r="D11">
-        <v>12.32552496785956</v>
+        <v>12.32552496785961</v>
       </c>
       <c r="E11">
-        <v>6.942997524909875</v>
+        <v>6.942997524909865</v>
       </c>
       <c r="F11">
-        <v>80.97570642059067</v>
+        <v>80.97570642059047</v>
       </c>
       <c r="G11">
-        <v>2.004813107908994</v>
+        <v>2.004813107908607</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.610438819263587</v>
+        <v>8.610438819263551</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.79929357443757</v>
+        <v>32.79929357443763</v>
       </c>
       <c r="C12">
-        <v>17.68994315425637</v>
+        <v>17.68994315425618</v>
       </c>
       <c r="D12">
         <v>12.45993291376767</v>
       </c>
       <c r="E12">
-        <v>6.968011000741144</v>
+        <v>6.968011000741098</v>
       </c>
       <c r="F12">
-        <v>82.07769877183758</v>
+        <v>82.07769877183722</v>
       </c>
       <c r="G12">
-        <v>1.999567622193949</v>
+        <v>1.999567622193977</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.701379616457817</v>
+        <v>8.701379616457807</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.69084734185404</v>
+        <v>32.69084734185405</v>
       </c>
       <c r="C13">
-        <v>17.63242048265815</v>
+        <v>17.63242048265802</v>
       </c>
       <c r="D13">
-        <v>12.43094441783874</v>
+        <v>12.43094441783881</v>
       </c>
       <c r="E13">
-        <v>6.962588433623661</v>
+        <v>6.962588433623668</v>
       </c>
       <c r="F13">
-        <v>81.84036600472653</v>
+        <v>81.84036600472693</v>
       </c>
       <c r="G13">
-        <v>2.000700052479641</v>
+        <v>2.000700052479632</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.678303790065238</v>
+        <v>8.678303790065225</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.33686220765771</v>
+        <v>32.33686220765772</v>
       </c>
       <c r="C14">
-        <v>17.44476095883836</v>
+        <v>17.44476095883846</v>
       </c>
       <c r="D14">
-        <v>12.33656468048261</v>
+        <v>12.33656468048265</v>
       </c>
       <c r="E14">
-        <v>6.945039613408658</v>
+        <v>6.945039613408696</v>
       </c>
       <c r="F14">
-        <v>81.0663721398808</v>
+        <v>81.06637213988112</v>
       </c>
       <c r="G14">
-        <v>2.004382752175466</v>
+        <v>2.004382752175181</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.617538011065221</v>
+        <v>8.617538011065212</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11976845395301</v>
+        <v>32.11976845395306</v>
       </c>
       <c r="C15">
-        <v>17.32974840206788</v>
+        <v>17.32974840206818</v>
       </c>
       <c r="D15">
-        <v>12.27886938711978</v>
+        <v>12.27886938711984</v>
       </c>
       <c r="E15">
-        <v>6.934392012962647</v>
+        <v>6.934392012962793</v>
       </c>
       <c r="F15">
-        <v>80.59223268553349</v>
+        <v>80.59223268553409</v>
       </c>
       <c r="G15">
-        <v>2.006630924310471</v>
+        <v>2.006630924310079</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.580457038336622</v>
+        <v>8.580457038336608</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.87070018654205</v>
+        <v>30.87070018654207</v>
       </c>
       <c r="C16">
-        <v>16.66905791450399</v>
+        <v>16.66905791450412</v>
       </c>
       <c r="D16">
-        <v>11.94975793715522</v>
+        <v>11.9497579371552</v>
       </c>
       <c r="E16">
-        <v>6.874836521919011</v>
+        <v>6.874836521918981</v>
       </c>
       <c r="F16">
-        <v>77.87267616548725</v>
+        <v>77.87267616548723</v>
       </c>
       <c r="G16">
-        <v>2.019413731144287</v>
+        <v>2.019413731144314</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.369970305019299</v>
+        <v>8.369970305019269</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.09909488241937</v>
+        <v>30.09909488241935</v>
       </c>
       <c r="C17">
-        <v>16.26172276849895</v>
+        <v>16.2617227684991</v>
       </c>
       <c r="D17">
-        <v>11.74897079667235</v>
+        <v>11.74897079667238</v>
       </c>
       <c r="E17">
-        <v>6.83951002296361</v>
+        <v>6.839510022963677</v>
       </c>
       <c r="F17">
-        <v>76.20040679271685</v>
+        <v>76.20040679271641</v>
       </c>
       <c r="G17">
-        <v>2.027181647753267</v>
+        <v>2.027181647753008</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.242507849472135</v>
+        <v>8.242507849472126</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>29.65300213220384</v>
       </c>
       <c r="C18">
-        <v>16.02647350288556</v>
+        <v>16.02647350288561</v>
       </c>
       <c r="D18">
-        <v>11.63380601662497</v>
+        <v>11.63380601662491</v>
       </c>
       <c r="E18">
         <v>6.819600555164248</v>
       </c>
       <c r="F18">
-        <v>75.236513968512</v>
+        <v>75.23651396851163</v>
       </c>
       <c r="G18">
-        <v>2.031628164516035</v>
+        <v>2.031628164515788</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.169761764073021</v>
+        <v>8.169761764073003</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.50154213982041</v>
+        <v>29.50154213982026</v>
       </c>
       <c r="C19">
-        <v>15.9466380496495</v>
+        <v>15.94663804964945</v>
       </c>
       <c r="D19">
-        <v>11.59486129148807</v>
+        <v>11.59486129148797</v>
       </c>
       <c r="E19">
-        <v>6.812926807755368</v>
+        <v>6.812926807755348</v>
       </c>
       <c r="F19">
-        <v>74.90975283442414</v>
+        <v>74.9097528344238</v>
       </c>
       <c r="G19">
-        <v>2.033130513673578</v>
+        <v>2.033130513673699</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.145224859797633</v>
+        <v>8.145224859797658</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.18146333322489</v>
+        <v>30.18146333322493</v>
       </c>
       <c r="C20">
-        <v>16.30517911202443</v>
+        <v>16.30517911202414</v>
       </c>
       <c r="D20">
-        <v>11.77030974383054</v>
+        <v>11.77030974383069</v>
       </c>
       <c r="E20">
-        <v>6.843227476152985</v>
+        <v>6.843227476152923</v>
       </c>
       <c r="F20">
-        <v>76.37862195528663</v>
+        <v>76.37862195528699</v>
       </c>
       <c r="G20">
-        <v>2.026357075942467</v>
+        <v>2.026357075942463</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.25601685646717</v>
+        <v>8.256016856467149</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.44088975482683</v>
+        <v>32.44088975482685</v>
       </c>
       <c r="C21">
-        <v>17.49989330506253</v>
+        <v>17.49989330506249</v>
       </c>
       <c r="D21">
-        <v>12.36426170078504</v>
+        <v>12.36426170078507</v>
       </c>
       <c r="E21">
-        <v>6.950172723585661</v>
+        <v>6.950172723585629</v>
       </c>
       <c r="F21">
-        <v>81.29371799866344</v>
+        <v>81.29371799866351</v>
       </c>
       <c r="G21">
-        <v>2.003302674855477</v>
+        <v>2.003302674855759</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.635356910403127</v>
+        <v>8.635356910403154</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.90467499133706</v>
+        <v>33.90467499133701</v>
       </c>
       <c r="C22">
-        <v>18.277162974534</v>
+        <v>18.27716297453397</v>
       </c>
       <c r="D22">
-        <v>12.75734898839446</v>
+        <v>12.75734898839455</v>
       </c>
       <c r="E22">
-        <v>7.024516162809443</v>
+        <v>7.024516162809413</v>
       </c>
       <c r="F22">
-        <v>84.50223616671676</v>
+        <v>84.50223616671705</v>
       </c>
       <c r="G22">
-        <v>1.987911775520158</v>
+        <v>1.987911775520034</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.983541400214884</v>
+        <v>8.983541400214971</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.12418690932941</v>
+        <v>33.12418690932925</v>
       </c>
       <c r="C23">
-        <v>17.86236644181474</v>
+        <v>17.86236644181469</v>
       </c>
       <c r="D23">
-        <v>12.5469856172344</v>
+        <v>12.54698561723415</v>
       </c>
       <c r="E23">
-        <v>6.984386197440269</v>
+        <v>6.984386197440344</v>
       </c>
       <c r="F23">
-        <v>82.78930653522085</v>
+        <v>82.78930653522012</v>
       </c>
       <c r="G23">
-        <v>1.996163145005456</v>
+        <v>1.996163145005599</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.784394722240997</v>
+        <v>8.784394722240942</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.14423237752912</v>
+        <v>30.14423237752917</v>
       </c>
       <c r="C24">
-        <v>16.28553587323862</v>
+        <v>16.28553587323865</v>
       </c>
       <c r="D24">
-        <v>11.76066158370847</v>
+        <v>11.76066158370835</v>
       </c>
       <c r="E24">
-        <v>6.841545577197157</v>
+        <v>6.841545577197193</v>
       </c>
       <c r="F24">
-        <v>76.29805875741742</v>
+        <v>76.29805875741698</v>
       </c>
       <c r="G24">
-        <v>2.026729923807919</v>
+        <v>2.026729923807936</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.249907782283204</v>
+        <v>8.249907782283184</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.84013590756359</v>
+        <v>26.84013590756362</v>
       </c>
       <c r="C25">
-        <v>14.54624848351937</v>
+        <v>14.54624848351946</v>
       </c>
       <c r="D25">
-        <v>10.92430225876199</v>
+        <v>10.92430225876201</v>
       </c>
       <c r="E25">
-        <v>6.702848889248111</v>
+        <v>6.702848889248164</v>
       </c>
       <c r="F25">
-        <v>69.21438232845925</v>
+        <v>69.21438232845954</v>
       </c>
       <c r="G25">
-        <v>2.058928815988649</v>
+        <v>2.058928815988918</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.728511748516027</v>
+        <v>7.728511748515984</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30129240171317</v>
+        <v>24.26448620917438</v>
       </c>
       <c r="C2">
-        <v>13.21252755742129</v>
+        <v>15.68903645800138</v>
       </c>
       <c r="D2">
-        <v>10.31146608009546</v>
+        <v>4.131365627981434</v>
       </c>
       <c r="E2">
-        <v>6.610737239744211</v>
+        <v>6.56942885036349</v>
       </c>
       <c r="F2">
-        <v>63.87838565104356</v>
+        <v>23.42219198746745</v>
       </c>
       <c r="G2">
-        <v>2.082506316860518</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>32.36171036763968</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.6476205074976</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.57967398667698</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.00398357485706</v>
       </c>
       <c r="L2">
-        <v>7.359654974026135</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.491867089173003</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50444159584772</v>
+        <v>22.63121331874745</v>
       </c>
       <c r="C3">
-        <v>12.26791569349375</v>
+        <v>14.79212521654795</v>
       </c>
       <c r="D3">
-        <v>9.895798631816321</v>
+        <v>4.109062040325711</v>
       </c>
       <c r="E3">
-        <v>6.55331982453675</v>
+        <v>6.616616577037429</v>
       </c>
       <c r="F3">
-        <v>60.17341659922359</v>
+        <v>22.64769055363846</v>
       </c>
       <c r="G3">
-        <v>2.098607879283897</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>31.14456654027489</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.560691062229729</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.48716295932383</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.03877353854086</v>
       </c>
       <c r="L3">
-        <v>7.118224104180931</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.216820469753737</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45149828295628</v>
+        <v>21.56863366558307</v>
       </c>
       <c r="C4">
-        <v>11.66579565425427</v>
+        <v>14.21769371067839</v>
       </c>
       <c r="D4">
-        <v>9.639988260244706</v>
+        <v>4.095676911855447</v>
       </c>
       <c r="E4">
-        <v>6.520198864174044</v>
+        <v>6.647489113389776</v>
       </c>
       <c r="F4">
-        <v>57.85310656200118</v>
+        <v>22.17638748711226</v>
       </c>
       <c r="G4">
-        <v>2.108609924581144</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>30.39980810461081</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.733037400113332</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.43656745565632</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.07022297028246</v>
       </c>
       <c r="L4">
-        <v>6.974100053941232</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.04727099786524</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03302064957508</v>
+        <v>21.12030284187535</v>
       </c>
       <c r="C5">
-        <v>11.41460388434322</v>
+        <v>13.98721585830708</v>
       </c>
       <c r="D5">
-        <v>9.535560858063944</v>
+        <v>4.091638507251327</v>
       </c>
       <c r="E5">
-        <v>6.507194285121567</v>
+        <v>6.659062619516554</v>
       </c>
       <c r="F5">
-        <v>56.89617906872477</v>
+        <v>21.96858437377277</v>
       </c>
       <c r="G5">
-        <v>2.112722040903806</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>30.0663973619455</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.807937589512538</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.41170380866883</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.07352695684599</v>
       </c>
       <c r="L5">
-        <v>6.916402781130818</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.978980602190699</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96318929997588</v>
+        <v>21.04469717059163</v>
       </c>
       <c r="C6">
-        <v>11.37253503831885</v>
+        <v>13.96024515031682</v>
       </c>
       <c r="D6">
-        <v>9.518209136759847</v>
+        <v>4.092625086223428</v>
       </c>
       <c r="E6">
-        <v>6.505063427511056</v>
+        <v>6.659209675125867</v>
       </c>
       <c r="F6">
-        <v>56.73660080093155</v>
+        <v>21.9133299139147</v>
       </c>
       <c r="G6">
-        <v>2.113407234238759</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>29.97326352943309</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.82449700407764</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.40062656104504</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.05967499582707</v>
       </c>
       <c r="L6">
-        <v>6.906884832234141</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.968709155104939</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44587768502378</v>
+        <v>21.56198375362434</v>
       </c>
       <c r="C7">
-        <v>11.66243189000263</v>
+        <v>14.24583392485229</v>
       </c>
       <c r="D7">
-        <v>9.638580685147232</v>
+        <v>4.100176783902524</v>
       </c>
       <c r="E7">
-        <v>6.520021540717555</v>
+        <v>6.642726262249308</v>
       </c>
       <c r="F7">
-        <v>57.840246942856</v>
+        <v>22.11728080719641</v>
       </c>
       <c r="G7">
-        <v>2.108665226608937</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>30.29319127802956</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.744821104343379</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.41705827300947</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.03051910921777</v>
       </c>
       <c r="L7">
-        <v>6.973317733668311</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.049228914022872</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.68985133540266</v>
+        <v>23.71280803841212</v>
       </c>
       <c r="C8">
-        <v>12.89124996223361</v>
+        <v>15.42345805342662</v>
       </c>
       <c r="D8">
-        <v>10.16823816940955</v>
+        <v>4.129840268949102</v>
       </c>
       <c r="E8">
-        <v>6.590468870056047</v>
+        <v>6.578825281108458</v>
       </c>
       <c r="F8">
-        <v>62.61028892820534</v>
+        <v>23.08280658316182</v>
       </c>
       <c r="G8">
-        <v>2.088038701107374</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>31.81257915135858</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.560847445235064</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.52140683036563</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.96123487792637</v>
       </c>
       <c r="L8">
-        <v>7.275551801594133</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.400842902291899</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.96797522448687</v>
+        <v>27.46217739786529</v>
       </c>
       <c r="C9">
-        <v>15.1392151744724</v>
+        <v>17.49249575793973</v>
       </c>
       <c r="D9">
-        <v>11.2051890352001</v>
+        <v>4.182113798215942</v>
       </c>
       <c r="E9">
-        <v>6.747826885344443</v>
+        <v>6.477751437092924</v>
       </c>
       <c r="F9">
-        <v>71.61665404632038</v>
+        <v>25.09640955616947</v>
       </c>
       <c r="G9">
-        <v>2.048133856130407</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>34.96957742935248</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.18973155794855</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.81124120862672</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.98348837641831</v>
       </c>
       <c r="L9">
-        <v>7.901642675171012</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.076485534889285</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.95845847001843</v>
+        <v>29.93663943961471</v>
       </c>
       <c r="C10">
-        <v>16.71542269327236</v>
+        <v>18.90987356851393</v>
       </c>
       <c r="D10">
-        <v>11.97271881131879</v>
+        <v>4.224892574269419</v>
       </c>
       <c r="E10">
-        <v>6.878925434150937</v>
+        <v>6.411179739727178</v>
       </c>
       <c r="F10">
-        <v>78.06325842039263</v>
+        <v>26.55598091938415</v>
       </c>
       <c r="G10">
-        <v>2.018524055742716</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.23221146155296</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.636302880440494</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.04932827387994</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.04311550275808</v>
       </c>
       <c r="L10">
-        <v>8.384594531596653</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.564267338242429</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.29536388528354</v>
+        <v>31.00194473444615</v>
       </c>
       <c r="C11">
-        <v>17.42277144821988</v>
+        <v>19.56837687318462</v>
       </c>
       <c r="D11">
-        <v>12.32552496785961</v>
+        <v>4.253271958811057</v>
       </c>
       <c r="E11">
-        <v>6.942997524909865</v>
+        <v>6.375288804595917</v>
       </c>
       <c r="F11">
-        <v>80.97570642059047</v>
+        <v>27.14465121016969</v>
       </c>
       <c r="G11">
-        <v>2.004813107908607</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>38.12418235555162</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.838764917770962</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.13674355726853</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.02243888564038</v>
       </c>
       <c r="L11">
-        <v>8.610438819263551</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.787011796577737</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.79929357443763</v>
+        <v>31.39749975034525</v>
       </c>
       <c r="C12">
-        <v>17.68994315425618</v>
+        <v>19.79290705203209</v>
       </c>
       <c r="D12">
-        <v>12.45993291376767</v>
+        <v>4.259663692018759</v>
       </c>
       <c r="E12">
-        <v>6.968011000741098</v>
+        <v>6.36627797650014</v>
       </c>
       <c r="F12">
-        <v>82.07769877183722</v>
+        <v>27.40842384499064</v>
       </c>
       <c r="G12">
-        <v>1.999567622193977</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.53392359562492</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.913730313555119</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.18664011916221</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.05107685268312</v>
       </c>
       <c r="L12">
-        <v>8.701379616457807</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.86888570554158</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.69084734185405</v>
+        <v>31.31279403359497</v>
       </c>
       <c r="C13">
-        <v>17.63242048265802</v>
+        <v>19.74053640360844</v>
       </c>
       <c r="D13">
-        <v>12.43094441783881</v>
+        <v>4.257382060950992</v>
       </c>
       <c r="E13">
-        <v>6.962588433623668</v>
+        <v>6.369053123140183</v>
       </c>
       <c r="F13">
-        <v>81.84036600472693</v>
+        <v>27.35968352002026</v>
       </c>
       <c r="G13">
-        <v>2.000700052479632</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.45998687592702</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.897301722634713</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.17894119024758</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.05160324396104</v>
       </c>
       <c r="L13">
-        <v>8.678303790065225</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8.850876855900657</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.33686220765772</v>
+        <v>31.03470267179154</v>
       </c>
       <c r="C14">
-        <v>17.44476095883846</v>
+        <v>19.58513511569951</v>
       </c>
       <c r="D14">
-        <v>12.33656468048265</v>
+        <v>4.253413719866743</v>
       </c>
       <c r="E14">
-        <v>6.945039613408696</v>
+        <v>6.374901420594638</v>
       </c>
       <c r="F14">
-        <v>81.06637213988112</v>
+        <v>27.16980117259822</v>
       </c>
       <c r="G14">
-        <v>2.004382752175181</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>38.16401386868613</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.844804151689287</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.14214569620933</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.02763937120846</v>
       </c>
       <c r="L14">
-        <v>8.617538011065212</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>8.793587236818992</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11976845395306</v>
+        <v>30.86305211456182</v>
       </c>
       <c r="C15">
-        <v>17.32974840206818</v>
+        <v>19.49781984682177</v>
       </c>
       <c r="D15">
-        <v>12.27886938711984</v>
+        <v>4.252765469432615</v>
       </c>
       <c r="E15">
-        <v>6.934392012962793</v>
+        <v>6.37685757853116</v>
       </c>
       <c r="F15">
-        <v>80.59223268553409</v>
+        <v>27.03739919842422</v>
       </c>
       <c r="G15">
-        <v>2.006630924310079</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>37.95411994171889</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.813294381348104</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.11362245228264</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.99985631511658</v>
       </c>
       <c r="L15">
-        <v>8.580457038336608</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>8.759227571482329</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.87070018654207</v>
+        <v>29.86397799400306</v>
       </c>
       <c r="C16">
-        <v>16.66905791450412</v>
+        <v>18.9379560031053</v>
       </c>
       <c r="D16">
-        <v>11.9497579371552</v>
+        <v>4.237836720688979</v>
       </c>
       <c r="E16">
-        <v>6.874836521918981</v>
+        <v>6.399465693609055</v>
       </c>
       <c r="F16">
-        <v>77.87267616548723</v>
+        <v>26.37968230783228</v>
       </c>
       <c r="G16">
-        <v>2.019413731144314</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>36.9290356920112</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.628078830118676</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.9915846416542</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.93118615419612</v>
       </c>
       <c r="L16">
-        <v>8.369970305019269</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>8.556453113825006</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.09909488241935</v>
+        <v>29.23598195449151</v>
       </c>
       <c r="C17">
-        <v>16.2617227684991</v>
+        <v>18.58820163929266</v>
       </c>
       <c r="D17">
-        <v>11.74897079667238</v>
+        <v>4.228726198122748</v>
       </c>
       <c r="E17">
-        <v>6.839510022963677</v>
+        <v>6.41401093999326</v>
       </c>
       <c r="F17">
-        <v>76.20040679271641</v>
+        <v>25.97603392750339</v>
       </c>
       <c r="G17">
-        <v>2.027181647753008</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>36.29875359607069</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.513971051222221</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.91895462956282</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.89370371756477</v>
       </c>
       <c r="L17">
-        <v>8.242507849472126</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8.431301067886722</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.65300213220384</v>
+        <v>28.86974833893545</v>
       </c>
       <c r="C18">
-        <v>16.02647350288561</v>
+        <v>18.36239844427231</v>
       </c>
       <c r="D18">
-        <v>11.63380601662491</v>
+        <v>4.219023521722066</v>
       </c>
       <c r="E18">
-        <v>6.819600555164248</v>
+        <v>6.426876141619658</v>
       </c>
       <c r="F18">
-        <v>75.23651396851163</v>
+        <v>25.78654541543257</v>
       </c>
       <c r="G18">
-        <v>2.031628164515788</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>36.01179594588741</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.445677743021761</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.89394636479704</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.90825652520268</v>
       </c>
       <c r="L18">
-        <v>8.169761764073003</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.356938570567795</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.50154213982026</v>
+        <v>28.74435434326713</v>
       </c>
       <c r="C19">
-        <v>15.94663804964945</v>
+        <v>18.30271505395746</v>
       </c>
       <c r="D19">
-        <v>11.59486129148797</v>
+        <v>4.219194315599988</v>
       </c>
       <c r="E19">
-        <v>6.812926807755348</v>
+        <v>6.427988974819701</v>
       </c>
       <c r="F19">
-        <v>74.9097528344238</v>
+        <v>25.68951245708234</v>
       </c>
       <c r="G19">
-        <v>2.033130513673699</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>35.85603225504073</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.424345728574881</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.87331669631743</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.88688067532015</v>
       </c>
       <c r="L19">
-        <v>8.145224859797658</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.333345115530703</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.18146333322493</v>
+        <v>29.30345416970518</v>
       </c>
       <c r="C20">
-        <v>16.30517911202414</v>
+        <v>18.62394169720486</v>
       </c>
       <c r="D20">
-        <v>11.77030974383069</v>
+        <v>4.229341285762232</v>
       </c>
       <c r="E20">
-        <v>6.843227476152923</v>
+        <v>6.412771290163518</v>
       </c>
       <c r="F20">
-        <v>76.37862195528699</v>
+        <v>26.0223267518932</v>
       </c>
       <c r="G20">
-        <v>2.026357075942463</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>36.37180542195182</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.525942785172243</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.92784964004412</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.90022260181498</v>
       </c>
       <c r="L20">
-        <v>8.256016856467149</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.44448701613193</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.44088975482685</v>
+        <v>31.11598580056349</v>
       </c>
       <c r="C21">
-        <v>17.49989330506249</v>
+        <v>19.65435604847956</v>
       </c>
       <c r="D21">
-        <v>12.36426170078507</v>
+        <v>4.259642479216513</v>
       </c>
       <c r="E21">
-        <v>6.950172723585629</v>
+        <v>6.368409185436468</v>
       </c>
       <c r="F21">
-        <v>81.29371799866351</v>
+        <v>27.1802386289634</v>
       </c>
       <c r="G21">
-        <v>2.003302674855759</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>38.17066808962104</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.862170239495984</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.1355007696756</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.99642310411537</v>
       </c>
       <c r="L21">
-        <v>8.635356910403154</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.812658713169579</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.90467499133701</v>
+        <v>32.25244143422178</v>
       </c>
       <c r="C22">
-        <v>18.27716297453397</v>
+        <v>20.27755170263665</v>
       </c>
       <c r="D22">
-        <v>12.75734898839455</v>
+        <v>4.27317843810544</v>
       </c>
       <c r="E22">
-        <v>7.024516162809413</v>
+        <v>6.347747843645191</v>
       </c>
       <c r="F22">
-        <v>84.50223616671705</v>
+        <v>27.99358570071702</v>
       </c>
       <c r="G22">
-        <v>1.987911775520034</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>39.44298205461315</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.077887819797676</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.30079406557679</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.12366909142004</v>
       </c>
       <c r="L22">
-        <v>8.983541400214971</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.047817043001308</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.12418690932925</v>
+        <v>31.6510889072871</v>
       </c>
       <c r="C23">
-        <v>17.86236644181469</v>
+        <v>19.9187526590898</v>
       </c>
       <c r="D23">
-        <v>12.54698561723415</v>
+        <v>4.259835017775435</v>
       </c>
       <c r="E23">
-        <v>6.984386197440344</v>
+        <v>6.364311035645212</v>
       </c>
       <c r="F23">
-        <v>82.78930653522012</v>
+        <v>27.61382723736301</v>
       </c>
       <c r="G23">
-        <v>1.996163145005599</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>38.86040087795607</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.96092636952294</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.23279635385358</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.10021531535567</v>
       </c>
       <c r="L23">
-        <v>8.784394722240942</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.919895020163336</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.14423237752917</v>
+        <v>29.2741536779777</v>
       </c>
       <c r="C24">
-        <v>16.28553587323865</v>
+        <v>18.56109178712107</v>
       </c>
       <c r="D24">
-        <v>11.76066158370835</v>
+        <v>4.219594337333583</v>
       </c>
       <c r="E24">
-        <v>6.841545577197193</v>
+        <v>6.422355203086686</v>
       </c>
       <c r="F24">
-        <v>76.29805875741698</v>
+        <v>26.0909819280604</v>
       </c>
       <c r="G24">
-        <v>2.026729923807936</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>36.49814422765878</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.516280855052772</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.95748113692502</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.97018451186388</v>
       </c>
       <c r="L24">
-        <v>8.249907782283184</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.434094969737261</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.84013590756362</v>
+        <v>26.49633141176895</v>
       </c>
       <c r="C25">
-        <v>14.54624848351946</v>
+        <v>17.00171096320879</v>
       </c>
       <c r="D25">
-        <v>10.92430225876201</v>
+        <v>4.176560815037901</v>
       </c>
       <c r="E25">
-        <v>6.702848889248164</v>
+        <v>6.494575391518002</v>
       </c>
       <c r="F25">
-        <v>69.21438232845954</v>
+        <v>24.45814297024015</v>
       </c>
       <c r="G25">
-        <v>2.058928815988918</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>33.95201492737229</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.026089461605272</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.69354260787405</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.89571788717768</v>
       </c>
       <c r="L25">
-        <v>7.728511748515984</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.89975328020945</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.26448620917438</v>
+        <v>24.28499064874822</v>
       </c>
       <c r="C2">
-        <v>15.68903645800138</v>
+        <v>16.26780005605787</v>
       </c>
       <c r="D2">
-        <v>4.131365627981434</v>
+        <v>4.242171750666091</v>
       </c>
       <c r="E2">
-        <v>6.56942885036349</v>
+        <v>6.334747938676272</v>
       </c>
       <c r="F2">
-        <v>23.42219198746745</v>
+        <v>22.01254662932765</v>
       </c>
       <c r="G2">
-        <v>32.36171036763968</v>
+        <v>29.30172161466406</v>
       </c>
       <c r="I2">
-        <v>2.6476205074976</v>
+        <v>2.696075385922158</v>
       </c>
       <c r="J2">
-        <v>10.57967398667698</v>
+        <v>10.5640673921137</v>
       </c>
       <c r="K2">
-        <v>16.00398357485706</v>
+        <v>14.86064402690278</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.83368382361347</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.24351229601467</v>
       </c>
       <c r="N2">
-        <v>7.491867089173003</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.57577080710754</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.63121331874745</v>
+        <v>22.66673660358406</v>
       </c>
       <c r="C3">
-        <v>14.79212521654795</v>
+        <v>15.25644522141208</v>
       </c>
       <c r="D3">
-        <v>4.109062040325711</v>
+        <v>4.173842627352673</v>
       </c>
       <c r="E3">
-        <v>6.616616577037429</v>
+        <v>6.394276959359665</v>
       </c>
       <c r="F3">
-        <v>22.64769055363846</v>
+        <v>21.39620966058634</v>
       </c>
       <c r="G3">
-        <v>31.14456654027489</v>
+        <v>28.37172127156966</v>
       </c>
       <c r="I3">
-        <v>2.560691062229729</v>
+        <v>2.477146656595974</v>
       </c>
       <c r="J3">
-        <v>10.48716295932383</v>
+        <v>10.4820535595597</v>
       </c>
       <c r="K3">
-        <v>16.03877353854086</v>
+        <v>15.00088586670807</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.00170505278367</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.272110946101277</v>
       </c>
       <c r="N3">
-        <v>7.216820469753737</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.292246301900359</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56863366558307</v>
+        <v>21.61314944613448</v>
       </c>
       <c r="C4">
-        <v>14.21769371067839</v>
+        <v>14.60687528126067</v>
       </c>
       <c r="D4">
-        <v>4.095676911855447</v>
+        <v>4.132043844061386</v>
       </c>
       <c r="E4">
-        <v>6.647489113389776</v>
+        <v>6.432549595639496</v>
       </c>
       <c r="F4">
-        <v>22.17638748711226</v>
+        <v>21.02159265130837</v>
       </c>
       <c r="G4">
-        <v>30.39980810461081</v>
+        <v>27.81089371531248</v>
       </c>
       <c r="I4">
-        <v>2.733037400113332</v>
+        <v>2.625196344982582</v>
       </c>
       <c r="J4">
-        <v>10.43656745565632</v>
+        <v>10.43336928138204</v>
       </c>
       <c r="K4">
-        <v>16.07022297028246</v>
+        <v>15.09386302875871</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.10435852174755</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.319424375770982</v>
       </c>
       <c r="N4">
-        <v>7.04727099786524</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.117042554693179</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.12030284187535</v>
+        <v>21.16845051900385</v>
       </c>
       <c r="C5">
-        <v>13.98721585830708</v>
+        <v>14.34421116160999</v>
       </c>
       <c r="D5">
-        <v>4.091638507251327</v>
+        <v>4.116594027855969</v>
       </c>
       <c r="E5">
-        <v>6.659062619516554</v>
+        <v>6.447349690583332</v>
       </c>
       <c r="F5">
-        <v>21.96858437377277</v>
+        <v>20.85456568386231</v>
       </c>
       <c r="G5">
-        <v>30.0663973619455</v>
+        <v>27.55671420153583</v>
       </c>
       <c r="I5">
-        <v>2.807937589512538</v>
+        <v>2.690604563009089</v>
       </c>
       <c r="J5">
-        <v>10.41170380866883</v>
+        <v>10.40885091516757</v>
       </c>
       <c r="K5">
-        <v>16.07352695684599</v>
+        <v>15.1231739096808</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.13734844995339</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.339253081752959</v>
       </c>
       <c r="N5">
-        <v>6.978980602190699</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.046267286574934</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.04469717059163</v>
+        <v>21.09345630789194</v>
       </c>
       <c r="C6">
-        <v>13.96024515031682</v>
+        <v>14.3113852791574</v>
       </c>
       <c r="D6">
-        <v>4.092625086223428</v>
+        <v>4.115921896758639</v>
       </c>
       <c r="E6">
-        <v>6.659209675125867</v>
+        <v>6.448338111440492</v>
       </c>
       <c r="F6">
-        <v>21.9133299139147</v>
+        <v>20.80801492834264</v>
       </c>
       <c r="G6">
-        <v>29.97326352943309</v>
+        <v>27.48000880752365</v>
       </c>
       <c r="I6">
-        <v>2.82449700407764</v>
+        <v>2.706250722071829</v>
       </c>
       <c r="J6">
-        <v>10.40062656104504</v>
+        <v>10.39858809602054</v>
       </c>
       <c r="K6">
-        <v>16.05967499582707</v>
+        <v>15.11569385379677</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.13218204715291</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.334830419552892</v>
       </c>
       <c r="N6">
-        <v>6.968709155104939</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.035482355174221</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.56198375362434</v>
+        <v>21.606249146768</v>
       </c>
       <c r="C7">
-        <v>14.24583392485229</v>
+        <v>14.6237499661714</v>
       </c>
       <c r="D7">
-        <v>4.100176783902524</v>
+        <v>4.140413517263759</v>
       </c>
       <c r="E7">
-        <v>6.642726262249308</v>
+        <v>6.429286397895265</v>
       </c>
       <c r="F7">
-        <v>22.11728080719641</v>
+        <v>20.93786547126444</v>
       </c>
       <c r="G7">
-        <v>30.29319127802956</v>
+        <v>27.78310055721715</v>
       </c>
       <c r="I7">
-        <v>2.744821104343379</v>
+        <v>2.63942769504348</v>
       </c>
       <c r="J7">
-        <v>10.41705827300947</v>
+        <v>10.36195035181849</v>
       </c>
       <c r="K7">
-        <v>16.03051910921777</v>
+        <v>15.04563650971679</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.06393530684673</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.286854555471624</v>
       </c>
       <c r="N7">
-        <v>7.049228914022872</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.118066407039665</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.71280803841212</v>
+        <v>23.73755421767179</v>
       </c>
       <c r="C8">
-        <v>15.42345805342662</v>
+        <v>15.93239313182791</v>
       </c>
       <c r="D8">
-        <v>4.129840268949102</v>
+        <v>4.23717719235421</v>
       </c>
       <c r="E8">
-        <v>6.578825281108458</v>
+        <v>6.351738504251248</v>
       </c>
       <c r="F8">
-        <v>23.08280658316182</v>
+        <v>21.63714512989262</v>
       </c>
       <c r="G8">
-        <v>31.81257915135858</v>
+        <v>29.08280362997479</v>
       </c>
       <c r="I8">
-        <v>2.560847445235064</v>
+        <v>2.620808996471206</v>
       </c>
       <c r="J8">
-        <v>10.52140683036563</v>
+        <v>10.33669320142248</v>
       </c>
       <c r="K8">
-        <v>15.96123487792637</v>
+        <v>14.81454627094157</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.81846282182101</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.177912981696151</v>
       </c>
       <c r="N8">
-        <v>7.400842902291899</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.47948676844975</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.46217739786529</v>
+        <v>27.44718906845468</v>
       </c>
       <c r="C9">
-        <v>17.49249575793973</v>
+        <v>18.25683542615362</v>
       </c>
       <c r="D9">
-        <v>4.182113798215942</v>
+        <v>4.405627665956588</v>
       </c>
       <c r="E9">
-        <v>6.477751437092924</v>
+        <v>6.218499135552418</v>
       </c>
       <c r="F9">
-        <v>25.09640955616947</v>
+        <v>23.23344742727408</v>
       </c>
       <c r="G9">
-        <v>34.96957742935248</v>
+        <v>31.60525002212227</v>
       </c>
       <c r="I9">
-        <v>3.18973155794855</v>
+        <v>3.159040071936976</v>
       </c>
       <c r="J9">
-        <v>10.81124120862672</v>
+        <v>10.52677499427483</v>
       </c>
       <c r="K9">
-        <v>15.98348837641831</v>
+        <v>14.5349525035373</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.42401308259996</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.293117062459299</v>
       </c>
       <c r="N9">
-        <v>8.076485534889285</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.17323394460198</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.93663943961471</v>
+        <v>29.88820205095445</v>
       </c>
       <c r="C10">
-        <v>18.90987356851393</v>
+        <v>19.79336261532616</v>
       </c>
       <c r="D10">
-        <v>4.224892574269419</v>
+        <v>4.553371460748653</v>
       </c>
       <c r="E10">
-        <v>6.411179739727178</v>
+        <v>6.131841402854957</v>
       </c>
       <c r="F10">
-        <v>26.55598091938415</v>
+        <v>24.2434444551266</v>
       </c>
       <c r="G10">
-        <v>37.23221146155296</v>
+        <v>33.79939914209857</v>
       </c>
       <c r="I10">
-        <v>3.636302880440494</v>
+        <v>3.538148790469</v>
       </c>
       <c r="J10">
-        <v>11.04932827387994</v>
+        <v>10.37304669971714</v>
       </c>
       <c r="K10">
-        <v>16.04311550275808</v>
+        <v>14.2745503051696</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.0637657105287</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.451372966328247</v>
       </c>
       <c r="N10">
-        <v>8.564267338242429</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.667844009156568</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.00194473444615</v>
+        <v>30.9347652447148</v>
       </c>
       <c r="C11">
-        <v>19.56837687318462</v>
+        <v>20.42520159366289</v>
       </c>
       <c r="D11">
-        <v>4.253271958811057</v>
+        <v>4.668252530876123</v>
       </c>
       <c r="E11">
-        <v>6.375288804595917</v>
+        <v>6.096266299220577</v>
       </c>
       <c r="F11">
-        <v>27.14465121016969</v>
+        <v>24.37690803849552</v>
       </c>
       <c r="G11">
-        <v>38.12418235555162</v>
+        <v>35.27520683825895</v>
       </c>
       <c r="I11">
-        <v>3.838764917770962</v>
+        <v>3.706279868254625</v>
       </c>
       <c r="J11">
-        <v>11.13674355726853</v>
+        <v>9.779853670981645</v>
       </c>
       <c r="K11">
-        <v>16.02243888564038</v>
+        <v>13.96720266627981</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.77061967345015</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.383202972644417</v>
       </c>
       <c r="N11">
-        <v>8.787011796577737</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.886540107170738</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.39749975034525</v>
+        <v>31.32270953558806</v>
       </c>
       <c r="C12">
-        <v>19.79290705203209</v>
+        <v>20.63168817143821</v>
       </c>
       <c r="D12">
-        <v>4.259663692018759</v>
+        <v>4.711883164793582</v>
       </c>
       <c r="E12">
-        <v>6.36627797650014</v>
+        <v>6.087812344225669</v>
       </c>
       <c r="F12">
-        <v>27.40842384499064</v>
+        <v>24.43414883294412</v>
       </c>
       <c r="G12">
-        <v>38.53392359562492</v>
+        <v>35.97080242422114</v>
       </c>
       <c r="I12">
-        <v>3.913730313555119</v>
+        <v>3.766718983525544</v>
       </c>
       <c r="J12">
-        <v>11.18664011916221</v>
+        <v>9.512787844686569</v>
       </c>
       <c r="K12">
-        <v>16.05107685268312</v>
+        <v>13.86230914174837</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.6677664063035</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.369914592511531</v>
       </c>
       <c r="N12">
-        <v>8.86888570554158</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.966198655884615</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.31279403359497</v>
+        <v>31.2396448301909</v>
       </c>
       <c r="C13">
-        <v>19.74053640360844</v>
+        <v>20.58381094656525</v>
       </c>
       <c r="D13">
-        <v>4.257382060950992</v>
+        <v>4.701203306802959</v>
       </c>
       <c r="E13">
-        <v>6.369053123140183</v>
+        <v>6.090244481103971</v>
       </c>
       <c r="F13">
-        <v>27.35968352002026</v>
+        <v>24.43045964705447</v>
       </c>
       <c r="G13">
-        <v>38.45998687592702</v>
+        <v>35.83089963644026</v>
       </c>
       <c r="I13">
-        <v>3.897301722634713</v>
+        <v>3.753223534648051</v>
       </c>
       <c r="J13">
-        <v>11.17894119024758</v>
+        <v>9.575060617048292</v>
       </c>
       <c r="K13">
-        <v>16.05160324396104</v>
+        <v>13.89128771562453</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.69401615800854</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.378215691531752</v>
       </c>
       <c r="N13">
-        <v>8.850876855900657</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>8.948741998128629</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.03470267179154</v>
+        <v>30.96689855566974</v>
       </c>
       <c r="C14">
-        <v>19.58513511569951</v>
+        <v>20.44074375197389</v>
       </c>
       <c r="D14">
-        <v>4.253413719866743</v>
+        <v>4.671294601043816</v>
       </c>
       <c r="E14">
-        <v>6.374901420594638</v>
+        <v>6.095828208476929</v>
       </c>
       <c r="F14">
-        <v>27.16980117259822</v>
+        <v>24.3853419119267</v>
       </c>
       <c r="G14">
-        <v>38.16401386868613</v>
+        <v>35.33660142495278</v>
       </c>
       <c r="I14">
-        <v>3.844804151689287</v>
+        <v>3.711040524096719</v>
       </c>
       <c r="J14">
-        <v>11.14214569620933</v>
+        <v>9.759994812291895</v>
       </c>
       <c r="K14">
-        <v>16.02763937120846</v>
+        <v>13.96131357306739</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.76392858415121</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.384434558960946</v>
       </c>
       <c r="N14">
-        <v>8.793587236818992</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>8.892966241191791</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.86305211456182</v>
+        <v>30.79849811225741</v>
       </c>
       <c r="C15">
-        <v>19.49781984682177</v>
+        <v>20.35940598781903</v>
       </c>
       <c r="D15">
-        <v>4.252765469432615</v>
+        <v>4.655695208719153</v>
       </c>
       <c r="E15">
-        <v>6.37685757853116</v>
+        <v>6.098120989105769</v>
       </c>
       <c r="F15">
-        <v>27.03739919842422</v>
+        <v>24.33921378655758</v>
       </c>
       <c r="G15">
-        <v>37.95411994171889</v>
+        <v>35.01695234180556</v>
       </c>
       <c r="I15">
-        <v>3.813294381348104</v>
+        <v>3.686229223530176</v>
       </c>
       <c r="J15">
-        <v>11.11362245228264</v>
+        <v>9.861343894985037</v>
       </c>
       <c r="K15">
-        <v>15.99985631511658</v>
+        <v>13.99083585867642</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.79807454637356</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.377015482079267</v>
       </c>
       <c r="N15">
-        <v>8.759227571482329</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8.859348173494507</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.86397799400306</v>
+        <v>29.81695612108725</v>
       </c>
       <c r="C16">
-        <v>18.9379560031053</v>
+        <v>19.81845176990953</v>
       </c>
       <c r="D16">
-        <v>4.237836720688979</v>
+        <v>4.563300516674273</v>
       </c>
       <c r="E16">
-        <v>6.399465693609055</v>
+        <v>6.123045119896869</v>
       </c>
       <c r="F16">
-        <v>26.37968230783228</v>
+        <v>24.1058744609766</v>
       </c>
       <c r="G16">
-        <v>36.9290356920112</v>
+        <v>33.48908475303173</v>
       </c>
       <c r="I16">
-        <v>3.628078830118676</v>
+        <v>3.535558705827611</v>
       </c>
       <c r="J16">
-        <v>10.9915846416542</v>
+        <v>10.36062345583733</v>
       </c>
       <c r="K16">
-        <v>15.93118615419612</v>
+        <v>14.19746017887674</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.01799773541434</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.37288093022471</v>
       </c>
       <c r="N16">
-        <v>8.556453113825006</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8.659559899757156</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.23598195449151</v>
+        <v>29.19890901633509</v>
       </c>
       <c r="C17">
-        <v>18.58820163929266</v>
+        <v>19.46403404107921</v>
       </c>
       <c r="D17">
-        <v>4.228726198122748</v>
+        <v>4.515006644444454</v>
       </c>
       <c r="E17">
-        <v>6.41401093999326</v>
+        <v>6.140887856347501</v>
       </c>
       <c r="F17">
-        <v>25.97603392750339</v>
+        <v>23.90910288929584</v>
       </c>
       <c r="G17">
-        <v>36.29875359607069</v>
+        <v>32.67628800623602</v>
       </c>
       <c r="I17">
-        <v>3.513971051222221</v>
+        <v>3.441606600368056</v>
       </c>
       <c r="J17">
-        <v>10.91895462956282</v>
+        <v>10.56389707639598</v>
       </c>
       <c r="K17">
-        <v>15.89370371756477</v>
+        <v>14.29567985758887</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.13345980464927</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.351200724373422</v>
       </c>
       <c r="N17">
-        <v>8.431301067886722</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>8.534747710029334</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.86974833893545</v>
+        <v>28.83802953685843</v>
       </c>
       <c r="C18">
-        <v>18.36239844427231</v>
+        <v>19.23056285808716</v>
       </c>
       <c r="D18">
-        <v>4.219023521722066</v>
+        <v>4.485109081891046</v>
       </c>
       <c r="E18">
-        <v>6.426876141619658</v>
+        <v>6.155389309497235</v>
       </c>
       <c r="F18">
-        <v>25.78654541543257</v>
+        <v>23.81505994366923</v>
       </c>
       <c r="G18">
-        <v>36.01179594588741</v>
+        <v>32.32370694464149</v>
       </c>
       <c r="I18">
-        <v>3.445677743021761</v>
+        <v>3.383267853786935</v>
       </c>
       <c r="J18">
-        <v>10.89394636479704</v>
+        <v>10.65604958723501</v>
       </c>
       <c r="K18">
-        <v>15.90825652520268</v>
+        <v>14.3710168306253</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.21246459441255</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.356758460942217</v>
       </c>
       <c r="N18">
-        <v>8.356938570567795</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.460240042748701</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.74435434326713</v>
+        <v>28.71445259630818</v>
       </c>
       <c r="C19">
-        <v>18.30271505395746</v>
+        <v>19.16643320679672</v>
       </c>
       <c r="D19">
-        <v>4.219194315599988</v>
+        <v>4.479325102198663</v>
       </c>
       <c r="E19">
-        <v>6.427988974819701</v>
+        <v>6.157806629841421</v>
       </c>
       <c r="F19">
-        <v>25.68951245708234</v>
+        <v>23.75015363995754</v>
       </c>
       <c r="G19">
-        <v>35.85603225504073</v>
+        <v>32.15858099155554</v>
       </c>
       <c r="I19">
-        <v>3.424345728574881</v>
+        <v>3.366168917406058</v>
       </c>
       <c r="J19">
-        <v>10.87331669631743</v>
+        <v>10.67024781642023</v>
       </c>
       <c r="K19">
-        <v>15.88688067532015</v>
+        <v>14.37253649685312</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.22273612190029</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.33866872885363</v>
       </c>
       <c r="N19">
-        <v>8.333345115530703</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.436360699351928</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.30345416970518</v>
+        <v>29.26534726386966</v>
       </c>
       <c r="C20">
-        <v>18.62394169720486</v>
+        <v>19.50097691932359</v>
       </c>
       <c r="D20">
-        <v>4.229341285762232</v>
+        <v>4.519449163882571</v>
       </c>
       <c r="E20">
-        <v>6.412771290163518</v>
+        <v>6.139167339631256</v>
       </c>
       <c r="F20">
-        <v>26.0223267518932</v>
+        <v>23.93507663427106</v>
       </c>
       <c r="G20">
-        <v>36.37180542195182</v>
+        <v>32.76350047534574</v>
       </c>
       <c r="I20">
-        <v>3.525942785172243</v>
+        <v>3.451376382806005</v>
       </c>
       <c r="J20">
-        <v>10.92784964004412</v>
+        <v>10.54727454958161</v>
       </c>
       <c r="K20">
-        <v>15.90022260181498</v>
+        <v>14.28853862274037</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.12344640448749</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.356120509983086</v>
       </c>
       <c r="N20">
-        <v>8.44448701613193</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.5479677544967</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.11598580056349</v>
+        <v>31.04572783681449</v>
       </c>
       <c r="C21">
-        <v>19.65435604847956</v>
+        <v>20.4789653398342</v>
       </c>
       <c r="D21">
-        <v>4.259642479216513</v>
+        <v>4.699407583560107</v>
       </c>
       <c r="E21">
-        <v>6.368409185436468</v>
+        <v>6.093234616744344</v>
       </c>
       <c r="F21">
-        <v>27.1802386289634</v>
+        <v>24.2650520404007</v>
       </c>
       <c r="G21">
-        <v>38.17066808962104</v>
+        <v>35.61969458151314</v>
       </c>
       <c r="I21">
-        <v>3.862170239495984</v>
+        <v>3.724632728476059</v>
       </c>
       <c r="J21">
-        <v>11.1355007696756</v>
+        <v>9.52039849446221</v>
       </c>
       <c r="K21">
-        <v>15.99642310411537</v>
+        <v>13.85762586408986</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.68948568154213</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.310190163794896</v>
       </c>
       <c r="N21">
-        <v>8.812658713169579</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.909233439067194</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.25244143422178</v>
+        <v>32.16016577035945</v>
       </c>
       <c r="C22">
-        <v>20.27755170263665</v>
+        <v>21.06102867930782</v>
       </c>
       <c r="D22">
-        <v>4.27317843810544</v>
+        <v>4.81699211946784</v>
       </c>
       <c r="E22">
-        <v>6.347747843645191</v>
+        <v>6.073108787468819</v>
       </c>
       <c r="F22">
-        <v>27.99358570071702</v>
+        <v>24.51003135741192</v>
       </c>
       <c r="G22">
-        <v>39.44298205461315</v>
+        <v>37.63532594425833</v>
       </c>
       <c r="I22">
-        <v>4.077887819797676</v>
+        <v>3.898027895553808</v>
       </c>
       <c r="J22">
-        <v>11.30079406557679</v>
+        <v>8.836879934876366</v>
       </c>
       <c r="K22">
-        <v>16.12366909142004</v>
+        <v>13.60422070688744</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.42522284452071</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.321708150619388</v>
       </c>
       <c r="N22">
-        <v>9.047817043001308</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.138682257139079</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.6510889072871</v>
+        <v>31.57119230232082</v>
       </c>
       <c r="C23">
-        <v>19.9187526590898</v>
+        <v>20.74438086045232</v>
       </c>
       <c r="D23">
-        <v>4.259835017775435</v>
+        <v>4.736921997349853</v>
       </c>
       <c r="E23">
-        <v>6.364311035645212</v>
+        <v>6.085906930641706</v>
       </c>
       <c r="F23">
-        <v>27.61382723736301</v>
+        <v>24.49441174524439</v>
       </c>
       <c r="G23">
-        <v>38.86040087795607</v>
+        <v>36.49609049556792</v>
       </c>
       <c r="I23">
-        <v>3.96092636952294</v>
+        <v>3.80349673649652</v>
       </c>
       <c r="J23">
-        <v>11.23279635385358</v>
+        <v>9.336284224567489</v>
       </c>
       <c r="K23">
-        <v>16.10021531535567</v>
+        <v>13.81442527960607</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.6141776168919</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.379435316966719</v>
       </c>
       <c r="N23">
-        <v>8.919895020163336</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.015689375295764</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.2741536779777</v>
+        <v>29.23636062155767</v>
       </c>
       <c r="C24">
-        <v>18.56109178712107</v>
+        <v>19.43981955309682</v>
       </c>
       <c r="D24">
-        <v>4.219594337333583</v>
+        <v>4.506802482361281</v>
       </c>
       <c r="E24">
-        <v>6.422355203086686</v>
+        <v>6.147167878799746</v>
       </c>
       <c r="F24">
-        <v>26.0909819280604</v>
+        <v>24.00442807908695</v>
       </c>
       <c r="G24">
-        <v>36.49814422765878</v>
+        <v>32.86959124652775</v>
       </c>
       <c r="I24">
-        <v>3.516280855052772</v>
+        <v>3.440297235042639</v>
       </c>
       <c r="J24">
-        <v>10.95748113692502</v>
+        <v>10.58326524164396</v>
       </c>
       <c r="K24">
-        <v>15.97018451186388</v>
+        <v>14.3528948183152</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.16944585145954</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.405936651202964</v>
       </c>
       <c r="N24">
-        <v>8.434094969737261</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.537962607675567</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.49633141176895</v>
+        <v>26.49303102254316</v>
       </c>
       <c r="C25">
-        <v>17.00171096320879</v>
+        <v>17.71072564204896</v>
       </c>
       <c r="D25">
-        <v>4.176560815037901</v>
+        <v>4.36509249548948</v>
       </c>
       <c r="E25">
-        <v>6.494575391518002</v>
+        <v>6.244951069987414</v>
       </c>
       <c r="F25">
-        <v>24.45814297024015</v>
+        <v>22.75562684775288</v>
       </c>
       <c r="G25">
-        <v>33.95201492737229</v>
+        <v>30.67510508754206</v>
       </c>
       <c r="I25">
-        <v>3.026089461605272</v>
+        <v>3.022494920084081</v>
       </c>
       <c r="J25">
-        <v>10.69354260787405</v>
+        <v>10.51943088997789</v>
       </c>
       <c r="K25">
-        <v>15.89571788717768</v>
+        <v>14.56393465600597</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.50288745280177</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.202136500542464</v>
       </c>
       <c r="N25">
-        <v>7.89975328020945</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.992543262794714</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
